--- a/Multi-taxa_data/PLITs/extraction/PLIT_SN.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_SN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CE24A6-240A-469B-9B08-DBF985BF53D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CFD56E-EC1A-4FE8-9578-EA067B0E97E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="437">
   <si>
     <t>D1</t>
   </si>
@@ -1768,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5319,10 +5319,7 @@
       <c r="A165" s="1">
         <v>2780</v>
       </c>
-      <c r="C165" s="1">
-        <f>SUM(C5:C164)</f>
-        <v>2853</v>
-      </c>
+      <c r="C165" s="1"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
@@ -5340,7 +5337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L210"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8798,10 +8797,7 @@
         <v>2730</v>
       </c>
       <c r="B204" s="2"/>
-      <c r="C204" s="1">
-        <f>SUM(C5:C203)</f>
-        <v>2693</v>
-      </c>
+      <c r="C204" s="1"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B205" s="2"/>
@@ -8826,7 +8822,7 @@
   <customSheetViews>
     <customSheetView guid="{6E7EF732-8F72-4E2A-AE02-096484A4AE33}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A4:L204" xr:uid="{9D6A41DB-5093-4104-9CDD-E413C1B46D6E}"/>
+      <autoFilter ref="A4:L204" xr:uid="{36098515-E29E-4A88-923D-0620604347BD}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2018917650"/>
@@ -8843,7 +8839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11428,10 +11426,7 @@
         <v>2760</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="C105" s="2">
-        <f>SUM(C5:C104)</f>
-        <v>2745</v>
-      </c>
+      <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -12840,7 +12835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M207"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C178" sqref="C178"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17291,10 +17288,7 @@
         <v>2800</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178" s="2">
-        <f>SUM(C5:C177)</f>
-        <v>2740</v>
-      </c>
+      <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -17710,7 +17704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -21979,10 +21975,7 @@
         <v>2730</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="C171" s="2">
-        <f>SUM(C5:C170)</f>
-        <v>2655</v>
-      </c>
+      <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -22423,9 +22416,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="I149" sqref="I149"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22536,7 +22531,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C191" si="0">A6-A5</f>
+        <f t="shared" ref="C5:C189" si="0">A6-A5</f>
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -26109,7 +26104,7 @@
       </c>
       <c r="C145" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>35</v>
@@ -26127,14 +26122,14 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>1823</v>
+        <v>1847</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C146" s="2">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>30</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>40</v>
@@ -26152,17 +26147,17 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>1817</v>
+        <v>1877</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C147" s="2">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -26177,14 +26172,14 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>1847</v>
+        <v>1879</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C148" s="2">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>40</v>
@@ -26196,23 +26191,23 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L148" s="2"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>1877</v>
+        <v>1940</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C149" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -26221,23 +26216,23 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L149" s="2"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>1879</v>
+        <v>2022</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C150" s="2">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="D150" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -26246,20 +26241,20 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L150" s="2"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>1940</v>
+        <v>2038</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C151" s="2">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>35</v>
@@ -26271,23 +26266,23 @@
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L151" s="2"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>2022</v>
+        <v>2115</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="C152" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D152" s="23" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -26296,20 +26291,20 @@
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L152" s="2"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>2038</v>
+        <v>2117</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C153" s="2">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>35</v>
@@ -26321,24 +26316,22 @@
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L153" s="2"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>2115</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>178</v>
+        <v>2173</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="C154" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D154" s="23"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -26346,20 +26339,20 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L154" s="2"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>2117</v>
+        <v>2179</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C155" s="2">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>35</v>
@@ -26371,22 +26364,24 @@
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L155" s="2"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>2173</v>
-      </c>
-      <c r="B156" s="23" t="s">
-        <v>12</v>
+        <v>2225</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C156" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D156" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -26394,23 +26389,23 @@
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L156" s="2"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>2179</v>
+        <v>2228</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C157" s="2">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -26419,23 +26414,23 @@
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L157" s="2"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>2225</v>
+        <v>2240</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C158" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -26444,23 +26439,23 @@
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L158" s="2"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>2228</v>
+        <v>2298</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C159" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -26469,20 +26464,20 @@
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L159" s="2"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>2240</v>
+        <v>2300</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C160" s="2">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>35</v>
@@ -26494,23 +26489,23 @@
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L160" s="2"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>2298</v>
+        <v>2307</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C161" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -26519,20 +26514,20 @@
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L161" s="2"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C162" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>35</v>
@@ -26544,20 +26539,20 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L162" s="2"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>2307</v>
+        <v>2377</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="C163" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>40</v>
@@ -26569,20 +26564,20 @@
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L163" s="2"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>2310</v>
+        <v>2387</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C164" s="2">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>35</v>
@@ -26594,20 +26589,20 @@
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L164" s="2"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>2377</v>
+        <v>2402</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="C165" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>40</v>
@@ -26625,14 +26620,14 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>2387</v>
+        <v>2403</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C166" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>35</v>
@@ -26644,24 +26639,22 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L166" s="2"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
-        <v>2402</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>39</v>
+      <c r="A167" s="1">
+        <v>2412</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="C167" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D167" s="23"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -26669,20 +26662,20 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L167" s="2"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>2403</v>
+        <v>2415</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C168" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>35</v>
@@ -26694,22 +26687,24 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L168" s="2"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
-        <v>2412</v>
-      </c>
-      <c r="B169" s="23" t="s">
-        <v>12</v>
+      <c r="A169" s="2">
+        <v>2421</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C169" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D169" s="23"/>
+        <v>6</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -26723,14 +26718,14 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>2415</v>
+        <v>2427</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C170" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>35</v>
@@ -26742,23 +26737,23 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L170" s="2"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
-        <v>2421</v>
+        <v>2466</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C171" s="2">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C171" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="D171" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -26767,20 +26762,20 @@
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L171" s="2"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
-        <v>2427</v>
+        <v>2475</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C172" s="2">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>35</v>
@@ -26792,23 +26787,23 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L172" s="2"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
-        <v>2466</v>
+        <v>2521</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="C173" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -26817,20 +26812,20 @@
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L173" s="2"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
-        <v>2475</v>
+        <v>2530</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C174" s="2">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>35</v>
@@ -26842,23 +26837,23 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L174" s="2"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
-        <v>2521</v>
+        <v>2540</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="C175" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -26873,14 +26868,14 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
-        <v>2530</v>
+        <v>2547</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C176" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>35</v>
@@ -26892,23 +26887,23 @@
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L176" s="2"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
-        <v>2540</v>
+        <v>2589</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="C177" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -26917,20 +26912,20 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L177" s="2"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
-        <v>2547</v>
+        <v>2594</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C178" s="2">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>35</v>
@@ -26942,20 +26937,20 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L178" s="2"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
-        <v>2589</v>
+        <v>2616</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C179" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>28</v>
@@ -26967,20 +26962,20 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L179" s="2"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>2594</v>
+        <v>2627</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C180" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>35</v>
@@ -26992,24 +26987,22 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L180" s="2"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
-        <v>2616</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>11</v>
+        <v>2631</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="C181" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D181" s="23"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
@@ -27023,17 +27016,17 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
-        <v>2627</v>
+        <v>2634</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C182" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -27048,14 +27041,14 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="B183" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C183" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D183" s="23"/>
       <c r="E183" s="2"/>
@@ -27071,7 +27064,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
-        <v>2634</v>
+        <v>2649</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>11</v>
@@ -27096,16 +27089,18 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
-        <v>2641</v>
-      </c>
-      <c r="B185" s="23" t="s">
-        <v>12</v>
+        <v>2656</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C185" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D185" s="23"/>
+        <v>38</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -27113,20 +27108,20 @@
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L185" s="2"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>2649</v>
+        <v>2694</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C186" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>28</v>
@@ -27138,20 +27133,20 @@
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L186" s="2"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
-        <v>2656</v>
+        <v>2712</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C187" s="2">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>35</v>
@@ -27163,23 +27158,23 @@
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L187" s="2"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>2694</v>
+        <v>2727</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C188" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -27188,20 +27183,20 @@
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L188" s="2"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
-        <v>2712</v>
+        <v>2729</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C189" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>35</v>
@@ -27213,69 +27208,46 @@
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L189" s="2"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>2727</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C190" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>2760</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
-      <c r="K190" s="2" t="s">
-        <v>436</v>
-      </c>
+      <c r="K190" s="2"/>
       <c r="L190" s="2"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A191" s="2">
-        <v>2729</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C191" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A191" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
-      <c r="K191" s="2" t="s">
-        <v>436</v>
-      </c>
+      <c r="K191" s="2"/>
       <c r="L191" s="2"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A192" s="2">
-        <v>2760</v>
-      </c>
+      <c r="A192" s="2"/>
       <c r="B192" s="2"/>
-      <c r="C192" s="2">
-        <f>SUM(C5:C191)</f>
-        <v>2760</v>
-      </c>
+      <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -27287,9 +27259,7 @@
       <c r="L192" s="2"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -27386,34 +27356,6 @@
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
-      <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2"/>
-      <c r="K201" s="2"/>
-      <c r="L201" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_SN.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_SN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CFD56E-EC1A-4FE8-9578-EA067B0E97E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BC3104-D2CF-4FF1-A820-E75B59F16EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -1768,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L166"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1809,7 +1809,9 @@
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>14.4</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -5337,8 +5339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L210"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5372,7 +5374,9 @@
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>14.5</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -8822,7 +8826,7 @@
   <customSheetViews>
     <customSheetView guid="{6E7EF732-8F72-4E2A-AE02-096484A4AE33}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A4:L204" xr:uid="{36098515-E29E-4A88-923D-0620604347BD}"/>
+      <autoFilter ref="A4:L204" xr:uid="{D85D71E1-4E80-4100-B78D-E77360EE5800}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2018917650"/>
@@ -8839,8 +8843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8874,7 +8878,9 @@
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>14.7</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -12835,7 +12841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M207"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
@@ -17704,7 +17710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
@@ -22418,7 +22424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_SN.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_SN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BC3104-D2CF-4FF1-A820-E75B59F16EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8467CDE4-F541-4CEA-BF1C-0CD4B62EBA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="436">
   <si>
     <t>D1</t>
   </si>
@@ -1165,9 +1165,6 @@
   </si>
   <si>
     <t>GOPR0305</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>GOPR0305-6</t>
@@ -8826,7 +8823,7 @@
   <customSheetViews>
     <customSheetView guid="{6E7EF732-8F72-4E2A-AE02-096484A4AE33}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A4:L204" xr:uid="{D85D71E1-4E80-4100-B78D-E77360EE5800}"/>
+      <autoFilter ref="A4:L204" xr:uid="{E08F3C22-B3D8-4F5E-90FB-4E7AE66AF027}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2018917650"/>
@@ -8843,8 +8840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22424,8 +22421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I149" sqref="I149"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24201,7 +24198,7 @@
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>372</v>
+        <v>40</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -24314,7 +24311,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -24340,7 +24337,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -24364,7 +24361,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -24390,7 +24387,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -24416,7 +24413,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -24442,7 +24439,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -24468,7 +24465,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -24494,7 +24491,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
@@ -24520,7 +24517,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -24546,7 +24543,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -24572,7 +24569,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -24598,7 +24595,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -24624,7 +24621,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -24650,7 +24647,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -24676,7 +24673,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -24702,7 +24699,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -24728,7 +24725,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -24754,7 +24751,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -24780,7 +24777,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -24806,7 +24803,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -24832,7 +24829,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
@@ -24858,7 +24855,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -24884,7 +24881,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
@@ -24910,7 +24907,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -24936,7 +24933,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -24960,7 +24957,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
@@ -24986,7 +24983,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -25012,7 +25009,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -25038,7 +25035,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -25064,7 +25061,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -25088,7 +25085,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -25114,7 +25111,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -25140,7 +25137,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -25166,7 +25163,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
@@ -25192,7 +25189,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -25218,7 +25215,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
@@ -25244,7 +25241,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
@@ -25268,7 +25265,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
@@ -25294,7 +25291,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -25318,7 +25315,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -25344,7 +25341,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
@@ -25370,7 +25367,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
@@ -25396,7 +25393,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
@@ -25422,7 +25419,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
@@ -25448,7 +25445,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -25474,7 +25471,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L119" s="2"/>
     </row>
@@ -25499,7 +25496,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L120" s="2"/>
     </row>
@@ -25524,7 +25521,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L121" s="2"/>
     </row>
@@ -25549,7 +25546,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L122" s="2"/>
     </row>
@@ -25574,7 +25571,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L123" s="2"/>
     </row>
@@ -25599,7 +25596,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L124" s="2"/>
     </row>
@@ -25622,7 +25619,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L125" s="2"/>
     </row>
@@ -25647,7 +25644,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L126" s="23" t="s">
         <v>287</v>
@@ -25674,7 +25671,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L127" s="2"/>
     </row>
@@ -25699,7 +25696,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L128" s="2"/>
     </row>
@@ -25724,7 +25721,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L129" s="2"/>
     </row>
@@ -25749,7 +25746,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L130" s="2"/>
     </row>
@@ -25774,7 +25771,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L131" s="2"/>
     </row>
@@ -25799,7 +25796,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L132" s="2"/>
     </row>
@@ -25824,7 +25821,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L133" s="2"/>
     </row>
@@ -25849,7 +25846,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L134" s="2"/>
     </row>
@@ -25874,7 +25871,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L135" s="2"/>
     </row>
@@ -25899,7 +25896,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L136" s="2"/>
     </row>
@@ -25924,7 +25921,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L137" s="2"/>
     </row>
@@ -25947,7 +25944,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L138" s="2"/>
     </row>
@@ -25972,7 +25969,7 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L139" s="2"/>
     </row>
@@ -25997,7 +25994,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L140" s="2"/>
     </row>
@@ -26022,7 +26019,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L141" s="2"/>
     </row>
@@ -26047,7 +26044,7 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L142" s="2"/>
     </row>
@@ -26072,7 +26069,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L143" s="2"/>
     </row>
@@ -26097,7 +26094,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L144" s="2"/>
     </row>
@@ -26122,7 +26119,7 @@
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L145" s="2"/>
     </row>
@@ -26147,7 +26144,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L146" s="2"/>
     </row>
@@ -26172,7 +26169,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L147" s="2"/>
     </row>
@@ -26197,7 +26194,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L148" s="2"/>
     </row>
@@ -26222,7 +26219,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L149" s="2"/>
     </row>
@@ -26247,7 +26244,7 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L150" s="2"/>
     </row>
@@ -26272,7 +26269,7 @@
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L151" s="2"/>
     </row>
@@ -26297,7 +26294,7 @@
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L152" s="2"/>
     </row>
@@ -26322,7 +26319,7 @@
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L153" s="2"/>
     </row>
@@ -26345,7 +26342,7 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L154" s="2"/>
     </row>
@@ -26370,7 +26367,7 @@
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L155" s="2"/>
     </row>
@@ -26395,7 +26392,7 @@
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L156" s="2"/>
     </row>
@@ -26420,7 +26417,7 @@
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L157" s="2"/>
     </row>
@@ -26445,7 +26442,7 @@
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L158" s="2"/>
     </row>
@@ -26470,7 +26467,7 @@
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L159" s="2"/>
     </row>
@@ -26495,7 +26492,7 @@
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L160" s="2"/>
     </row>
@@ -26520,7 +26517,7 @@
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L161" s="2"/>
     </row>
@@ -26545,7 +26542,7 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L162" s="2"/>
     </row>
@@ -26570,7 +26567,7 @@
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L163" s="2"/>
     </row>
@@ -26595,7 +26592,7 @@
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L164" s="2"/>
     </row>
@@ -26620,7 +26617,7 @@
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L165" s="2"/>
     </row>
@@ -26645,7 +26642,7 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L166" s="2"/>
     </row>
@@ -26668,7 +26665,7 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L167" s="2"/>
     </row>
@@ -26693,7 +26690,7 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L168" s="2"/>
     </row>
@@ -26718,7 +26715,7 @@
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L169" s="2"/>
     </row>
@@ -26743,7 +26740,7 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L170" s="2"/>
     </row>
@@ -26768,7 +26765,7 @@
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L171" s="2"/>
     </row>
@@ -26793,7 +26790,7 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L172" s="2"/>
     </row>
@@ -26818,7 +26815,7 @@
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L173" s="2"/>
     </row>
@@ -26843,7 +26840,7 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L174" s="2"/>
     </row>
@@ -26868,7 +26865,7 @@
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L175" s="2"/>
     </row>
@@ -26893,7 +26890,7 @@
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L176" s="2"/>
     </row>
@@ -26918,7 +26915,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L177" s="2"/>
     </row>
@@ -26943,7 +26940,7 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L178" s="2"/>
     </row>
@@ -26968,7 +26965,7 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L179" s="2"/>
     </row>
@@ -26993,7 +26990,7 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L180" s="2"/>
     </row>
@@ -27016,7 +27013,7 @@
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L181" s="2"/>
     </row>
@@ -27041,7 +27038,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L182" s="2"/>
     </row>
@@ -27064,7 +27061,7 @@
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L183" s="2"/>
     </row>
@@ -27089,7 +27086,7 @@
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L184" s="2"/>
     </row>
@@ -27114,7 +27111,7 @@
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L185" s="2"/>
     </row>
@@ -27139,7 +27136,7 @@
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L186" s="2"/>
     </row>
@@ -27164,7 +27161,7 @@
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L187" s="2"/>
     </row>
@@ -27189,7 +27186,7 @@
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L188" s="2"/>
     </row>
@@ -27214,7 +27211,7 @@
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L189" s="2"/>
     </row>
